--- a/principal.xlsx
+++ b/principal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7101B557-1D76-4538-9E21-EF73DBA6A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37D324-F2E0-4359-80C3-4A341AB470B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E1A7AAEA-4700-4CAC-B44A-85A73F5314F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1A7AAEA-4700-4CAC-B44A-85A73F5314F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -373,32 +373,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBEA75B-A73B-4E3D-9567-B55BA4F78C93}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d5064d20-8bc6-47ff-a44b-15e4f327277e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100178060BA6F79C64BB381195BC59A9CCD" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4314a196892a011f454ae97dd5432095">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5064d20-8bc6-47ff-a44b-15e4f327277e" xmlns:ns4="6aad6c34-2958-4e2e-80dc-9d61ed5ce751" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3539a81bf66f6c9806b52c08f6beadef" ns3:_="" ns4:_="">
     <xsd:import namespace="d5064d20-8bc6-47ff-a44b-15e4f327277e"/>
@@ -637,32 +628,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d5064d20-8bc6-47ff-a44b-15e4f327277e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD226B70-1700-4631-963E-330082BF115F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6aad6c34-2958-4e2e-80dc-9d61ed5ce751"/>
-    <ds:schemaRef ds:uri="d5064d20-8bc6-47ff-a44b-15e4f327277e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BCA8E68-29C6-40B1-9460-FF7C920FD314}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2554D941-0E9E-4DA2-BDEC-837C91900017}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -679,4 +662,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BCA8E68-29C6-40B1-9460-FF7C920FD314}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD226B70-1700-4631-963E-330082BF115F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6aad6c34-2958-4e2e-80dc-9d61ed5ce751"/>
+    <ds:schemaRef ds:uri="d5064d20-8bc6-47ff-a44b-15e4f327277e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/principal.xlsx
+++ b/principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37D324-F2E0-4359-80C3-4A341AB470B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56484664-2A3E-4FCC-BBFA-46CDBDF327D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1A7AAEA-4700-4CAC-B44A-85A73F5314F4}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">Dia </t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,17 +385,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBEA75B-A73B-4E3D-9567-B55BA4F78C93}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
